--- a/src/database/seeders/files/school_periods.xlsx
+++ b/src/database/seeders/files/school_periods.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ignug-backend\src\database\seeders\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\cmtl\projects\ignug-backend\src\database\seeders\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D82C9B9-4E46-4FC6-9117-D89065F6359C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B432C3F6-64E8-4D12-9489-EE2164BF2647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{55CA4B8B-9AFD-4758-B74D-9C197BB24AAE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
   <si>
     <t>code</t>
   </si>
@@ -225,9 +225,6 @@
     <t>2023-10-01</t>
   </si>
   <si>
-    <t>2024-03-31</t>
-  </si>
-  <si>
     <t>2023-11-27</t>
   </si>
   <si>
@@ -243,7 +240,7 @@
     <t>2023-12-26</t>
   </si>
   <si>
-    <t>2023-12-28</t>
+    <t>2024-12-28</t>
   </si>
 </sst>
 </file>
@@ -331,7 +328,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -630,10 +627,10 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E1048576"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.77734375" bestFit="1" customWidth="1"/>
@@ -889,25 +886,25 @@
         <v>62</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="L7" t="s">
         <v>31</v>
